--- a/issues/issues.xlsx
+++ b/issues/issues.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23870" windowHeight="8750"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>русские  имена не говорит</t>
   </si>
@@ -73,10 +73,6 @@
     <t>открытый вопрос</t>
   </si>
   <si>
-    <t>Он ругается когда нажимается кнопка Save
-На этапе выбора уже ругаться сделать?</t>
-  </si>
-  <si>
     <t>Можно создавать сколько угодно листов практики Stage Type</t>
   </si>
   <si>
@@ -111,6 +107,66 @@
   <si>
     <t>Еще раз нажав кнопку старт, он не сбрасывает время тех пилотов, которые не пролетели старт. 
 Те можно организовать перелет. пока сделано, что все можно править. Случаи разные бывают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надо обязательно сделать предупреждение,  а то  непонятно что все удалится как  кто то пролетит  1 круг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">начинается  через  рандомный период времени </t>
+  </si>
+  <si>
+    <t>подсвечсивание  группы  которая  летит !! Как вдереве так  и  в списке !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсвечивание  групп которые пролетели  или будут лететь </t>
+  </si>
+  <si>
+    <t xml:space="preserve">максимальное время  вылет  - обычно  5  минут  … надо в конфигуратор </t>
+  </si>
+  <si>
+    <t>ok можне  говорить  какая группа летит ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматический  полет  групп  1 вызывается  группа (можнл обявлять  каждую минуту), 2 отсчет времени  3-5 минут(перерыв) ,  и обявляется   пригоовится  к  старту, 3 старт по  стандартному, следующая группа   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квалификация,  все тоже самое, но закладки хочется  другим  цветом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">нужна блокировка  вылетов прошедших, чтоб  случайно  не потереть, думаю  по умолчанию. А чтоб разблокировать  надо   спросить  пару раз. Буфет тер  пару раз </t>
+  </si>
+  <si>
+    <t xml:space="preserve">после  квалификаци  готовится  список пилотов  прошедших ее. 1  самый простой  случай по лучшему кругу,  более  сложный по общему  времени,  по  лучшим  2-5 кругам  идущим  подряд … , лучше всего  сделать отдельную  кнопку  по формированию  списка, .  пилотов  может быть   от  3  до  100 проходящик  в квалификацию. после  этого квалификация блокируется  и  невозможно там  чтото  поправить    без  супер  возможностей.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">чтото гудок по разному  звучит  или я не  понял,  и  отсчет времени должен совпадать с началом гудка, часы идут не равномерно </t>
+  </si>
+  <si>
+    <t>Он ругается когда нажимается кнопка Save
+На этапе выбора уже ругаться сделать?
+да лучше всего,  при  выборе  сразу   написать предупреждение</t>
+  </si>
+  <si>
+    <t>сделал, тормоза времени пока не знаю как победить</t>
+  </si>
+  <si>
+    <t>попозже сделаю, можно говорить какая группа летит</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>? Как где и каким цветом</t>
+  </si>
+  <si>
+    <t>Проще же нажать стоп. Никто 5 минут не будет ждать)</t>
+  </si>
+  <si>
+    <t>это функцию на потом, сейчас основной функционал</t>
+  </si>
+  <si>
+    <t>Я для этого сделал колонку Active - те что не прошли квалификация можно вручную отключить пилота.
+Еще хочу сделать вкладку с предварительными результатами</t>
   </si>
 </sst>
 </file>
@@ -136,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +229,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -201,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -225,6 +293,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -541,17 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="75.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="74.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="74.453125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -560,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -574,123 +664,378 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
+      <c r="C22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C60" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D22">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -714,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -722,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/issues/issues.xlsx
+++ b/issues/issues.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>русские  имена не говорит</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t>Я для этого сделал колонку Active - те что не прошли квалификация можно вручную отключить пилота.
 Еще хочу сделать вкладку с предварительными результатами</t>
+  </si>
+  <si>
+    <t>сходу не получилось, цвет поменять - только цвет шрифта</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,11 +893,15 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
